--- a/Projects/CCRU_SAND/Data/Petroleum PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Petroleum PoS 2018.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$76</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
@@ -34,7 +34,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$68</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -915,10 +916,12 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">OTMove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartDay</t>
+    <t xml:space="preserve">OTMove
+No_OTMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartDay
+No_StartDay</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVATION_SSD</t>
@@ -927,10 +930,12 @@
     <t xml:space="preserve">Number of CCH activation points in SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEST</t>
+    <t xml:space="preserve">IMPU
+No_IMPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEST
+No_DEST</t>
   </si>
   <si>
     <t xml:space="preserve">CHILLED_SS_WATER</t>
@@ -968,9 +973,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
@@ -1182,7 +1187,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,347 +1209,347 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1552,35 +1557,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1600,8 +1605,20 @@
         <name val="Calibri"/>
         <charset val="1"/>
         <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
@@ -1679,17 +1696,17 @@
   </sheetPr>
   <dimension ref="A1:AR65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M74" activeCellId="0" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1538461538462"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
@@ -7763,7 +7780,7 @@
       <c r="L70" s="82"/>
       <c r="M70" s="83"/>
       <c r="N70" s="83"/>
-      <c r="O70" s="82" t="s">
+      <c r="O70" s="83" t="s">
         <v>277</v>
       </c>
       <c r="P70" s="82"/>
@@ -7837,7 +7854,7 @@
       <c r="L71" s="82"/>
       <c r="M71" s="83"/>
       <c r="N71" s="83"/>
-      <c r="O71" s="82" t="s">
+      <c r="O71" s="83" t="s">
         <v>278</v>
       </c>
       <c r="P71" s="82"/>
@@ -7911,7 +7928,7 @@
       <c r="L72" s="82"/>
       <c r="M72" s="83"/>
       <c r="N72" s="83"/>
-      <c r="O72" s="82" t="s">
+      <c r="O72" s="83" t="s">
         <v>281</v>
       </c>
       <c r="P72" s="82"/>
@@ -7985,7 +8002,7 @@
       <c r="L73" s="82"/>
       <c r="M73" s="83"/>
       <c r="N73" s="83"/>
-      <c r="O73" s="82" t="s">
+      <c r="O73" s="83" t="s">
         <v>282</v>
       </c>
       <c r="P73" s="82"/>
@@ -8314,7 +8331,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ76"/>
+  <autoFilter ref="A1:AQ68"/>
   <conditionalFormatting sqref="G3:G14">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>

--- a/Projects/CCRU_SAND/Data/Petroleum PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Petroleum PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -63,10 +65,10 @@
     <t xml:space="preserve">SAP KPI</t>
   </si>
   <si>
+    <t xml:space="preserve">CCH KPI ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH KPI ID</t>
   </si>
   <si>
     <t xml:space="preserve">KPI name Rus</t>
@@ -1232,11 +1234,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1602,7 +1604,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1680,17 +1681,18 @@
   <dimension ref="A1:AR77"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="G69" activeCellId="0" sqref="G69:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
@@ -1718,25 +1720,25 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -1748,73 +1750,73 @@
       <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="2" t="s">
@@ -1846,10 +1848,10 @@
       <c r="E2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
         <v>49</v>
       </c>
@@ -1883,12 +1885,12 @@
         <v>50</v>
       </c>
       <c r="AF2" s="15"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
       <c r="AM2" s="17" t="n">
         <v>2</v>
       </c>
@@ -1918,10 +1920,10 @@
       <c r="E3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="22"/>
       <c r="H3" s="23" t="s">
         <v>54</v>
       </c>
@@ -1971,12 +1973,12 @@
       <c r="AF3" s="27" t="n">
         <v>0.016016</v>
       </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
       <c r="AM3" s="17" t="n">
         <v>3</v>
       </c>
@@ -2006,10 +2008,10 @@
       <c r="E4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="22"/>
       <c r="H4" s="23" t="s">
         <v>62</v>
       </c>
@@ -2059,12 +2061,12 @@
       <c r="AF4" s="27" t="n">
         <v>0.016016</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
       <c r="AM4" s="17" t="n">
         <v>3</v>
       </c>
@@ -2094,10 +2096,10 @@
       <c r="E5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
         <v>64</v>
       </c>
@@ -2182,10 +2184,10 @@
       <c r="E6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
         <v>66</v>
       </c>
@@ -2235,12 +2237,12 @@
       <c r="AF6" s="27" t="n">
         <v>0.011998</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
       <c r="AM6" s="17" t="n">
         <v>3</v>
       </c>
@@ -2270,10 +2272,10 @@
       <c r="E7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="22"/>
       <c r="H7" s="23" t="s">
         <v>68</v>
       </c>
@@ -2358,10 +2360,10 @@
       <c r="E8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="22"/>
       <c r="H8" s="23" t="s">
         <v>70</v>
       </c>
@@ -2446,10 +2448,10 @@
       <c r="E9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="22"/>
       <c r="H9" s="23" t="s">
         <v>72</v>
       </c>
@@ -2534,10 +2536,10 @@
       <c r="E10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="22"/>
       <c r="H10" s="23" t="s">
         <v>74</v>
       </c>
@@ -2622,10 +2624,10 @@
       <c r="E11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
         <v>76</v>
       </c>
@@ -2710,10 +2712,10 @@
       <c r="E12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="22"/>
       <c r="H12" s="23" t="s">
         <v>78</v>
       </c>
@@ -2798,10 +2800,10 @@
       <c r="E13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2886,10 +2888,10 @@
       <c r="E14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="22"/>
       <c r="H14" s="23" t="s">
         <v>82</v>
       </c>
@@ -2974,10 +2976,10 @@
       <c r="E15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="37"/>
       <c r="H15" s="37" t="s">
         <v>85</v>
       </c>
@@ -3046,10 +3048,10 @@
       <c r="E16" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="22"/>
       <c r="H16" s="23" t="s">
         <v>88</v>
       </c>
@@ -3134,10 +3136,10 @@
       <c r="E17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="22"/>
       <c r="H17" s="23" t="s">
         <v>90</v>
       </c>
@@ -3222,10 +3224,10 @@
       <c r="E18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="22"/>
       <c r="H18" s="23" t="s">
         <v>92</v>
       </c>
@@ -3310,10 +3312,10 @@
       <c r="E19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="22"/>
       <c r="H19" s="23" t="s">
         <v>94</v>
       </c>
@@ -3398,10 +3400,10 @@
       <c r="E20" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="22"/>
       <c r="H20" s="23" t="s">
         <v>96</v>
       </c>
@@ -3486,10 +3488,10 @@
       <c r="E21" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="22"/>
       <c r="H21" s="23" t="s">
         <v>98</v>
       </c>
@@ -3574,10 +3576,10 @@
       <c r="E22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="22"/>
       <c r="H22" s="23" t="s">
         <v>100</v>
       </c>
@@ -3662,10 +3664,10 @@
       <c r="E23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="37"/>
       <c r="H23" s="37" t="s">
         <v>102</v>
       </c>
@@ -3734,10 +3736,10 @@
       <c r="E24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="22"/>
       <c r="H24" s="23" t="s">
         <v>105</v>
       </c>
@@ -3822,10 +3824,10 @@
       <c r="E25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="22"/>
       <c r="H25" s="23" t="s">
         <v>107</v>
       </c>
@@ -3910,10 +3912,10 @@
       <c r="E26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="42"/>
       <c r="H26" s="23" t="s">
         <v>109</v>
       </c>
@@ -3998,10 +4000,10 @@
       <c r="E27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="42"/>
       <c r="H27" s="23" t="s">
         <v>111</v>
       </c>
@@ -4086,10 +4088,10 @@
       <c r="E28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="22"/>
       <c r="H28" s="23" t="s">
         <v>113</v>
       </c>
@@ -4174,10 +4176,10 @@
       <c r="E29" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="22"/>
       <c r="H29" s="23" t="s">
         <v>115</v>
       </c>
@@ -4262,10 +4264,10 @@
       <c r="E30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="22"/>
       <c r="H30" s="23" t="s">
         <v>117</v>
       </c>
@@ -4350,10 +4352,10 @@
       <c r="E31" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="22"/>
       <c r="H31" s="23" t="s">
         <v>119</v>
       </c>
@@ -4438,10 +4440,10 @@
       <c r="E32" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="37"/>
       <c r="H32" s="37" t="s">
         <v>121</v>
       </c>
@@ -4510,10 +4512,10 @@
       <c r="E33" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="22"/>
       <c r="H33" s="23" t="s">
         <v>124</v>
       </c>
@@ -4598,10 +4600,10 @@
       <c r="E34" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="22"/>
       <c r="H34" s="23" t="s">
         <v>126</v>
       </c>
@@ -4686,10 +4688,10 @@
       <c r="E35" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="22"/>
       <c r="H35" s="23" t="s">
         <v>128</v>
       </c>
@@ -4774,10 +4776,10 @@
       <c r="E36" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="22"/>
       <c r="H36" s="23" t="s">
         <v>130</v>
       </c>
@@ -4862,10 +4864,10 @@
       <c r="E37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="37"/>
       <c r="H37" s="37" t="s">
         <v>132</v>
       </c>
@@ -4934,10 +4936,10 @@
       <c r="E38" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="22"/>
       <c r="H38" s="23" t="s">
         <v>135</v>
       </c>
@@ -5022,10 +5024,10 @@
       <c r="E39" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="22"/>
       <c r="H39" s="23" t="s">
         <v>137</v>
       </c>
@@ -5110,10 +5112,10 @@
       <c r="E40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="22"/>
       <c r="H40" s="23" t="s">
         <v>139</v>
       </c>
@@ -5198,10 +5200,10 @@
       <c r="E41" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="22"/>
       <c r="H41" s="23" t="s">
         <v>141</v>
       </c>
@@ -5286,10 +5288,10 @@
       <c r="E42" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43"/>
+      <c r="G42" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="44"/>
       <c r="H42" s="44" t="s">
         <v>144</v>
       </c>
@@ -5380,10 +5382,10 @@
       <c r="E43" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="43"/>
+      <c r="G43" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="44"/>
       <c r="H43" s="44" t="s">
         <v>155</v>
       </c>
@@ -5474,10 +5476,10 @@
       <c r="E44" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="43"/>
+      <c r="G44" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="44"/>
       <c r="H44" s="44" t="s">
         <v>159</v>
       </c>
@@ -5568,10 +5570,10 @@
       <c r="E45" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="43"/>
+      <c r="G45" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="44"/>
       <c r="H45" s="44" t="s">
         <v>163</v>
       </c>
@@ -5662,10 +5664,10 @@
       <c r="E46" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="52"/>
+      <c r="G46" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
         <v>167</v>
       </c>
@@ -5742,10 +5744,10 @@
       <c r="E47" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="52"/>
+      <c r="G47" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
         <v>171</v>
       </c>
@@ -5830,10 +5832,10 @@
       <c r="E48" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="52"/>
+      <c r="G48" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
         <v>177</v>
       </c>
@@ -5912,10 +5914,10 @@
       <c r="E49" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
         <v>182</v>
       </c>
@@ -6002,10 +6004,10 @@
       <c r="E50" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="52"/>
+      <c r="G50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
         <v>186</v>
       </c>
@@ -6088,10 +6090,10 @@
       <c r="E51" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="43"/>
+      <c r="G51" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="44"/>
       <c r="H51" s="9" t="s">
         <v>192</v>
       </c>
@@ -6165,10 +6167,10 @@
       <c r="E52" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="43"/>
+      <c r="G52" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="61"/>
       <c r="H52" s="44" t="s">
         <v>197</v>
       </c>
@@ -6251,10 +6253,10 @@
       <c r="E53" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="43"/>
+      <c r="G53" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="G53" s="44"/>
       <c r="H53" s="44" t="s">
         <v>204</v>
       </c>
@@ -6335,10 +6337,10 @@
       <c r="E54" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="43"/>
+      <c r="G54" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="G54" s="44"/>
       <c r="H54" s="64" t="s">
         <v>209</v>
       </c>
@@ -6423,10 +6425,10 @@
       <c r="E55" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="43"/>
+      <c r="G55" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
         <v>217</v>
       </c>
@@ -6507,10 +6509,10 @@
       <c r="E56" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="43"/>
+      <c r="G56" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
         <v>222</v>
       </c>
@@ -6593,10 +6595,10 @@
       <c r="E57" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="43"/>
+      <c r="G57" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
         <v>226</v>
       </c>
@@ -6685,10 +6687,10 @@
       <c r="E58" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="43"/>
+      <c r="G58" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
         <v>228</v>
       </c>
@@ -6773,10 +6775,10 @@
       <c r="E59" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="43"/>
+      <c r="G59" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
         <v>230</v>
       </c>
@@ -6863,10 +6865,10 @@
       <c r="E60" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="43"/>
+      <c r="G60" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
         <v>235</v>
       </c>
@@ -6947,10 +6949,10 @@
       <c r="E61" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="43"/>
+      <c r="G61" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
         <v>238</v>
       </c>
@@ -7031,10 +7033,10 @@
       <c r="E62" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="43"/>
+      <c r="G62" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
         <v>241</v>
       </c>
@@ -7123,10 +7125,10 @@
       <c r="E63" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="43"/>
+      <c r="G63" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
         <v>245</v>
       </c>
@@ -7213,10 +7215,10 @@
       <c r="E64" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="43"/>
+      <c r="G64" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
         <v>248</v>
       </c>
@@ -7299,10 +7301,10 @@
       <c r="E65" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="43"/>
+      <c r="G65" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="G65" s="44"/>
       <c r="H65" s="44" t="s">
         <v>254</v>
       </c>
@@ -7393,10 +7395,10 @@
       <c r="E66" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="43"/>
+      <c r="G66" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="G66" s="44"/>
       <c r="H66" s="44" t="s">
         <v>260</v>
       </c>
@@ -7487,10 +7489,10 @@
       <c r="E67" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="43"/>
+      <c r="G67" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="G67" s="44"/>
       <c r="H67" s="44" t="s">
         <v>263</v>
       </c>
@@ -7581,10 +7583,10 @@
       <c r="E68" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="43"/>
+      <c r="G68" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="G68" s="44"/>
       <c r="H68" s="44" t="s">
         <v>266</v>
       </c>
@@ -8315,7 +8317,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ69"/>
-  <conditionalFormatting sqref="F3:G14">
+  <conditionalFormatting sqref="G3:G14">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -8325,7 +8327,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G22">
+  <conditionalFormatting sqref="G16:G22">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -8335,7 +8337,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:G29">
+  <conditionalFormatting sqref="G29">
     <cfRule type="duplicateValues" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -8345,7 +8347,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:G36">
+  <conditionalFormatting sqref="G33:G36">
     <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -8355,7 +8357,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:G41">
+  <conditionalFormatting sqref="G38:G41">
     <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -8384,7 +8386,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G69:G77 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8421,7 +8423,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G69:G77 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8434,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="89" t="s">
         <v>7</v>

--- a/Projects/CCRU_SAND/Data/Petroleum PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Petroleum PoS 2018.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
@@ -34,10 +34,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="294">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -781,7 +782,11 @@
     <t xml:space="preserve">number of facings near food</t>
   </si>
   <si>
-    <t xml:space="preserve">food</t>
+    <t xml:space="preserve">food, RN_Fifa_Combo_Champion_vorota, GP_Combo_Sandvich, GP_Combo_ Hotdog, CC_Combo_Goal, CC_Combo_Cans, CCMini_Can_on_Tray_Grek_salad_White, BP_Fifa_combo_Champion, Combo_hotdog_vorota_1, Combo_hotdog_vorota_2, SHELL_Promo_1, SHELL_Promo_2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10125, A5B10124 , A5B10123, A5B10121, A5B10120, A5B10118, A5B10116, A5B10135, A5B10136, A5B10137, A5B10138</t>
   </si>
   <si>
     <t xml:space="preserve">Food should be near Image</t>
@@ -982,7 +987,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1045,6 +1050,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1061,7 +1073,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1084,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1140,7 +1158,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1169,8 +1187,11 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1335,6 +1356,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1343,24 +1372,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -1368,6 +1397,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1390,7 +1420,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1415,7 +1445,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1454,18 +1484,18 @@
   <dimension ref="A1:AR77"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
+      <selection pane="bottomLeft" activeCell="N59" activeCellId="0" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.5627530364373"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="14.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6562,11 +6592,11 @@
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="10" t="s">
+      <c r="N59" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="O59" s="10" t="n">
-        <v>5000034</v>
+      <c r="O59" s="42" t="s">
+        <v>233</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
@@ -6596,13 +6626,13 @@
       <c r="AE59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF59" s="41" t="n">
+      <c r="AF59" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
       <c r="AI59" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ59" s="10"/>
       <c r="AK59" s="10"/>
@@ -6638,10 +6668,10 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>178</v>
@@ -6696,7 +6726,7 @@
         <v>59</v>
       </c>
       <c r="AO60" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP60" s="10"/>
       <c r="AQ60" s="10"/>
@@ -6722,10 +6752,10 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>223</v>
@@ -6780,10 +6810,10 @@
         <v>60</v>
       </c>
       <c r="AO61" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP61" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="13"/>
@@ -6806,10 +6836,10 @@
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>55</v>
@@ -6822,19 +6852,19 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>156</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R62" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T62" s="10" t="s">
         <v>184</v>
@@ -6875,7 +6905,7 @@
       </c>
       <c r="AO62" s="10"/>
       <c r="AP62" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ62" s="10"/>
       <c r="AR62" s="13"/>
@@ -6898,10 +6928,10 @@
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>55</v>
@@ -6914,13 +6944,13 @@
       <c r="M63" s="10"/>
       <c r="N63" s="8"/>
       <c r="O63" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>188</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R63" s="10" t="s">
         <v>56</v>
@@ -6965,7 +6995,7 @@
       </c>
       <c r="AO63" s="10"/>
       <c r="AP63" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="13"/>
@@ -6988,10 +7018,10 @@
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>55</v>
@@ -7003,10 +7033,10 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
@@ -7051,7 +7081,7 @@
       </c>
       <c r="AO64" s="10"/>
       <c r="AP64" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="13"/>
@@ -7067,17 +7097,17 @@
         <v>45</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>145</v>
@@ -7109,7 +7139,7 @@
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
       <c r="X65" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
@@ -7132,10 +7162,10 @@
         <v>1</v>
       </c>
       <c r="AI65" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ65" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK65" s="8"/>
       <c r="AL65" s="8"/>
@@ -7161,17 +7191,17 @@
         <v>45</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>145</v>
@@ -7203,7 +7233,7 @@
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
       <c r="X66" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
@@ -7226,10 +7256,10 @@
         <v>1</v>
       </c>
       <c r="AI66" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ66" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK66" s="8"/>
       <c r="AL66" s="8"/>
@@ -7255,17 +7285,17 @@
         <v>45</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>145</v>
@@ -7297,7 +7327,7 @@
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
@@ -7320,10 +7350,10 @@
         <v>1</v>
       </c>
       <c r="AI67" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ67" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK67" s="8"/>
       <c r="AL67" s="8"/>
@@ -7349,17 +7379,17 @@
         <v>45</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>145</v>
@@ -7391,7 +7421,7 @@
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
@@ -7414,10 +7444,10 @@
         <v>1</v>
       </c>
       <c r="AI68" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ68" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
@@ -7442,24 +7472,24 @@
       <c r="C69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="42" t="s">
-        <v>267</v>
+      <c r="D69" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>214</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -7470,7 +7500,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
@@ -7484,7 +7514,7 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
-      <c r="AF69" s="41" t="n">
+      <c r="AF69" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG69" s="10"/>
@@ -7512,39 +7542,39 @@
       <c r="C70" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="42" t="s">
-        <v>267</v>
+      <c r="D70" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E70" s="38" t="s">
         <v>215</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>216</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
@@ -7558,7 +7588,7 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
-      <c r="AF70" s="41" t="n">
+      <c r="AF70" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG70" s="10"/>
@@ -7586,39 +7616,39 @@
       <c r="C71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="42" t="s">
-        <v>267</v>
+      <c r="D71" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E71" s="38" t="s">
         <v>215</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
@@ -7632,7 +7662,7 @@
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
-      <c r="AF71" s="41" t="n">
+      <c r="AF71" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG71" s="10"/>
@@ -7660,39 +7690,39 @@
       <c r="C72" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>267</v>
+      <c r="D72" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>165</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>166</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
@@ -7706,7 +7736,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
-      <c r="AF72" s="41" t="n">
+      <c r="AF72" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG72" s="10"/>
@@ -7734,39 +7764,39 @@
       <c r="C73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>267</v>
+      <c r="D73" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>165</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>176</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T73" s="10"/>
       <c r="U73" s="10"/>
@@ -7780,7 +7810,7 @@
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
       <c r="AE73" s="10"/>
-      <c r="AF73" s="41" t="n">
+      <c r="AF73" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG73" s="10"/>
@@ -7808,26 +7838,26 @@
       <c r="C74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="42" t="s">
-        <v>267</v>
+      <c r="D74" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
@@ -7838,7 +7868,7 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
@@ -7852,7 +7882,7 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
-      <c r="AF74" s="41" t="n">
+      <c r="AF74" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG74" s="10"/>
@@ -7880,26 +7910,26 @@
       <c r="C75" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="42" t="s">
-        <v>267</v>
+      <c r="D75" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F75" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G75" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="J75" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -7910,7 +7940,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T75" s="10"/>
       <c r="U75" s="10"/>
@@ -7924,7 +7954,7 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
-      <c r="AF75" s="41" t="n">
+      <c r="AF75" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG75" s="10"/>
@@ -7952,26 +7982,26 @@
       <c r="C76" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="42" t="s">
-        <v>267</v>
+      <c r="D76" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -7982,7 +8012,7 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -7996,7 +8026,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
-      <c r="AF76" s="41" t="n">
+      <c r="AF76" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG76" s="10"/>
@@ -8024,26 +8054,26 @@
       <c r="C77" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="42" t="s">
-        <v>267</v>
+      <c r="D77" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -8054,7 +8084,7 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
@@ -8068,7 +8098,7 @@
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
       <c r="AE77" s="10"/>
-      <c r="AF77" s="41" t="n">
+      <c r="AF77" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG77" s="10"/>
@@ -8087,7 +8117,7 @@
       <c r="AP77" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ77"/>
+  <autoFilter ref="A1:AQ69"/>
   <conditionalFormatting sqref="G3:G14">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -8162,16 +8192,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>288</v>
+      <c r="A1" s="45" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8199,53 +8229,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
-        <v>292</v>
+      <c r="B4" s="48" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
